--- a/04/03_Encomenda de Alunos_a.xlsx
+++ b/04/03_Encomenda de Alunos_a.xlsx
@@ -5,18 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Publica\!!!!!!!!!!!!!!GERANDO FALCÕES - Noite_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingrid.slopes7\Desktop\GF_INGRID\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7987B537-CA8B-4EE1-BAEC-3BBE3596D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B05B46-C85F-4F30-948E-D09548114081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$2:$D$24</definedName>
+    <definedName name="aluno">Plan1!$B:$B</definedName>
+    <definedName name="entregas">Plan1!$D:$D</definedName>
+    <definedName name="livro_preco">Plan1!$H$2:$I$6</definedName>
+    <definedName name="livros">Plan1!$A:$A</definedName>
+    <definedName name="solicitaçoes">Plan1!$C:$C</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -535,14 +540,14 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
